--- a/biology/Zoologie/Borana_(cheval)/Borana_(cheval).xlsx
+++ b/biology/Zoologie/Borana_(cheval)/Borana_(cheval).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Borana est une race de chevaux originaire de la région de Borena, dans le sud de l'Éthiopie. Récemment étudiée, elle reste à caractériser. Sa robe est toujours baie, et elle présente une grande résistance à la sécheresse. Ces chevaux sont propres à une écozone des alentours de Mega, dans la région de Borena, où elle est élevée par des pastoralistes Oromos. Le cheval Borana fait l'objet de cultes.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race a été décrite pour la première fois par H. Epstein, en 1971, qui la décrit comme un « poney d'Afrique »[1].
-Il n'existe pas de stud-book[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race a été décrite pour la première fois par H. Epstein, en 1971, qui la décrit comme un « poney d'Afrique ».
+Il n'existe pas de stud-book.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le modèle général de la race Borana est typique des chevaux des basses-terres d'Éthiopie[3],[4]. Il n'existe pas de caractérisation en matière de taille, en raison de la grande difficulté rencontrée pour contenir ces animaux[5]. 
-La robe du Borana est uniformément baie[2].
-La race est particulièrement rustique et résistante aux sécheresses successives qui ravagent sa région[2],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le modèle général de la race Borana est typique des chevaux des basses-terres d'Éthiopie,. Il n'existe pas de caractérisation en matière de taille, en raison de la grande difficulté rencontrée pour contenir ces animaux. 
+La robe du Borana est uniformément baie.
+La race est particulièrement rustique et résistante aux sécheresses successives qui ravagent sa région,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Borana sert principalement au transport monté[2], mais d'après la tradition orale recueillie dans sa zone d'élevage, il n'est pas permis de l'atteler[4]. En 1980-1981, Coppock rapporte avoir vu des chevaux montés par des hommes, exclusivement, sur le plateau de Borana[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Borana sert principalement au transport monté, mais d'après la tradition orale recueillie dans sa zone d'élevage, il n'est pas permis de l'atteler. En 1980-1981, Coppock rapporte avoir vu des chevaux montés par des hommes, exclusivement, sur le plateau de Borana.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est propre à une écozone située autour de la ville de Mega, dans la région de Borena[4], où elle est élevée par les pastoralistes Oromos[2],[5]. D'après David Layne Coppock, des équidés sont souvent observés sur le plateau de Borana (1980-1981), mais à faible densité[6]. Il n'existe pas de relevé connu des effectifs[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est propre à une écozone située autour de la ville de Mega, dans la région de Borena, où elle est élevée par les pastoralistes Oromos,. D'après David Layne Coppock, des équidés sont souvent observés sur le plateau de Borana (1980-1981), mais à faible densité. Il n'existe pas de relevé connu des effectifs.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Impact culturel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces chevaux sont particulièrement valorisés culturellement[3] à travers le système de la Gadaa, un code de conduite envers les animaux, qui oblige par exemple, à laisser les chevaux s'abreuver en premier à un point d'eau, avant toute personne ou tout autre animal[4]. Par ailleurs, durant la saison sèche, ces chevaux sont régulièrement conduits jusqu'à des points d'eau[4]. Les chevaux mâles reçoivent après leur mort une cérémonie d'enterrement, semblable à celles qui sont organisées pour les êtres humains[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces chevaux sont particulièrement valorisés culturellement à travers le système de la Gadaa, un code de conduite envers les animaux, qui oblige par exemple, à laisser les chevaux s'abreuver en premier à un point d'eau, avant toute personne ou tout autre animal. Par ailleurs, durant la saison sèche, ces chevaux sont régulièrement conduits jusqu'à des points d'eau. Les chevaux mâles reçoivent après leur mort une cérémonie d'enterrement, semblable à celles qui sont organisées pour les êtres humains.
 </t>
         </is>
       </c>
